--- a/data_year/zb/科技/高技术产业研究与试验发展活动及新产品开发情况(大中型工业企业口径)/高技术产业研究与试验发展机构数(大中型工业企业口径).xlsx
+++ b/data_year/zb/科技/高技术产业研究与试验发展活动及新产品开发情况(大中型工业企业口径)/高技术产业研究与试验发展机构数(大中型工业企业口径).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U16"/>
+  <dimension ref="A1:U13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,36 +538,74 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>248</v>
+      </c>
+      <c r="C2" t="n">
+        <v>395</v>
+      </c>
+      <c r="D2" t="n">
+        <v>101</v>
+      </c>
+      <c r="E2" t="n">
+        <v>526</v>
+      </c>
+      <c r="F2" t="n">
+        <v>86</v>
+      </c>
+      <c r="G2" t="n">
+        <v>481</v>
+      </c>
+      <c r="H2" t="n">
+        <v>929</v>
+      </c>
+      <c r="I2" t="n">
+        <v>142</v>
+      </c>
+      <c r="J2" t="n">
+        <v>37</v>
+      </c>
+      <c r="K2" t="n">
+        <v>77</v>
+      </c>
+      <c r="L2" t="n">
+        <v>505</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1439</v>
+      </c>
+      <c r="N2" t="n">
+        <v>333</v>
+      </c>
+      <c r="O2" t="n">
+        <v>213</v>
+      </c>
+      <c r="P2" t="n">
+        <v>110</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>46</v>
+      </c>
+      <c r="R2" t="n">
+        <v>122</v>
+      </c>
+      <c r="S2" t="n">
+        <v>296</v>
+      </c>
+      <c r="T2" t="n">
+        <v>25</v>
+      </c>
       <c r="U2" t="n">
-        <v>1379</v>
+        <v>3184</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -590,13 +628,13 @@
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="n">
-        <v>1619</v>
+        <v>3254</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
@@ -619,147 +657,71 @@
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="n">
-        <v>2534</v>
+        <v>4566</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>234</v>
-      </c>
-      <c r="C5" t="n">
-        <v>339</v>
-      </c>
-      <c r="D5" t="n">
-        <v>65</v>
-      </c>
-      <c r="E5" t="n">
-        <v>477</v>
-      </c>
-      <c r="F5" t="n">
-        <v>78</v>
-      </c>
-      <c r="G5" t="n">
-        <v>417</v>
-      </c>
-      <c r="H5" t="n">
-        <v>849</v>
-      </c>
-      <c r="I5" t="n">
-        <v>122</v>
-      </c>
-      <c r="J5" t="n">
-        <v>29</v>
-      </c>
-      <c r="K5" t="n">
-        <v>70</v>
-      </c>
-      <c r="L5" t="n">
-        <v>480</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1251</v>
-      </c>
-      <c r="N5" t="n">
-        <v>287</v>
-      </c>
-      <c r="O5" t="n">
-        <v>217</v>
-      </c>
-      <c r="P5" t="n">
-        <v>124</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>55</v>
-      </c>
-      <c r="R5" t="n">
-        <v>111</v>
-      </c>
-      <c r="S5" t="n">
-        <v>239</v>
-      </c>
-      <c r="T5" t="n">
-        <v>29</v>
-      </c>
+          <t>2013年</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
       <c r="U5" t="n">
-        <v>2845</v>
+        <v>4583</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>248</v>
-      </c>
-      <c r="C6" t="n">
-        <v>395</v>
-      </c>
-      <c r="D6" t="n">
-        <v>101</v>
-      </c>
-      <c r="E6" t="n">
-        <v>526</v>
-      </c>
-      <c r="F6" t="n">
-        <v>86</v>
-      </c>
-      <c r="G6" t="n">
-        <v>481</v>
-      </c>
-      <c r="H6" t="n">
-        <v>929</v>
-      </c>
-      <c r="I6" t="n">
-        <v>142</v>
-      </c>
-      <c r="J6" t="n">
-        <v>37</v>
-      </c>
-      <c r="K6" t="n">
-        <v>77</v>
-      </c>
-      <c r="L6" t="n">
-        <v>505</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1439</v>
-      </c>
-      <c r="N6" t="n">
-        <v>333</v>
-      </c>
-      <c r="O6" t="n">
-        <v>213</v>
-      </c>
-      <c r="P6" t="n">
-        <v>110</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>46</v>
-      </c>
-      <c r="R6" t="n">
-        <v>122</v>
-      </c>
-      <c r="S6" t="n">
-        <v>296</v>
-      </c>
-      <c r="T6" t="n">
-        <v>25</v>
-      </c>
+          <t>2014年</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
       <c r="U6" t="n">
-        <v>3184</v>
+        <v>4763</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -782,13 +744,13 @@
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="n">
-        <v>3254</v>
+        <v>5572</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
@@ -811,13 +773,13 @@
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="n">
-        <v>4566</v>
+        <v>6456</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
@@ -840,13 +802,13 @@
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="n">
-        <v>4583</v>
+        <v>7018</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
@@ -869,13 +831,13 @@
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="n">
-        <v>4763</v>
+        <v>6399</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
@@ -898,13 +860,13 @@
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="n">
-        <v>5572</v>
+        <v>6331</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2016年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
@@ -927,13 +889,13 @@
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="n">
-        <v>6456</v>
+        <v>6682</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2017年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
@@ -956,94 +918,7 @@
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="n">
-        <v>7018</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="n">
-        <v>6399</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="n">
-        <v>6331</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="n">
-        <v>6682</v>
+        <v>7093</v>
       </c>
     </row>
   </sheetData>
